--- a/CEDEN/data_dictionaries/data_dictionary_conversion/habitat/CEDEN_Habitat_Data_Dictionary.xlsx
+++ b/CEDEN/data_dictionaries/data_dictionary_conversion/habitat/CEDEN_Habitat_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\David\Open_Data_Project\__CA_DataPortal\CEDEN\data_dictionary_conversion\habitat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/CEDEN/data_dictionaries/data_dictionary_conversion/habitat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79987E85-EAB1-4A96-BF71-05D8376EB2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{79987E85-EAB1-4A96-BF71-05D8376EB2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4254CD30-1299-49D2-A62F-F653684409DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEDEN_Habitat_Data_Dictionary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="5bc866af-c176-463c-b513-88f536d" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CEDEN_Habitat_Data_Dictionary!$A$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CEDEN_Habitat_Data_Dictionary!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="155">
   <si>
     <t>column</t>
   </si>
@@ -977,6 +977,30 @@
       </rPr>
       <t>http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=FieldObsVarLookUp</t>
     </r>
+  </si>
+  <si>
+    <t>ProgramCode</t>
+  </si>
+  <si>
+    <t>ParentProjectCode</t>
+  </si>
+  <si>
+    <t>ProjectCode</t>
+  </si>
+  <si>
+    <t>MatrixCode</t>
+  </si>
+  <si>
+    <t>AnalyteCode</t>
+  </si>
+  <si>
+    <t>FractionName</t>
+  </si>
+  <si>
+    <t>FractionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific descriptor of the Analyte. For example, metals are often expressed as total or dissolved and therefore this description should be used within the fraction field.	</t>
   </si>
 </sst>
 </file>
@@ -1824,10 +1848,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1865,7 +1893,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1971,7 +1999,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2113,7 +2141,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2121,21 +2149,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="116.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2178,7 +2208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2201,7 +2231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2224,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -2270,7 +2300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2293,7 +2323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -2316,7 +2346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2339,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -2362,7 +2392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -2385,7 +2415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -2431,7 +2461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2454,7 +2484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -2477,7 +2507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -2500,7 +2530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2523,7 +2553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>105</v>
       </c>
@@ -2546,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -2569,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -2592,7 +2622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2615,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -2638,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
@@ -2661,7 +2691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -2684,7 +2714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -2707,7 +2737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -2730,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
@@ -2753,7 +2783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
@@ -2776,7 +2806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
@@ -2799,7 +2829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -2822,7 +2852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
@@ -2845,7 +2875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -2868,7 +2898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -2891,7 +2921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
@@ -2914,7 +2944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>76</v>
       </c>
@@ -2937,7 +2967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
@@ -2960,7 +2990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -2983,7 +3013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>84</v>
       </c>
@@ -3006,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>106</v>
       </c>
@@ -3029,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>89</v>
       </c>
@@ -3052,19 +3082,183 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="144.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="4" t="str" cm="1">
         <f t="array" ref="C41">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E41),"-")</f>
-        <v>Data Quality</v>
+        <v>-</v>
       </c>
       <c r="D41" s="5" t="str" cm="1">
         <f t="array" ref="D41">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E41),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E41" s="2" t="e">
+        <f>MATCH(A41,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="str" cm="1">
+        <f t="array" ref="C42">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E42),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D42" s="5" t="str" cm="1">
+        <f t="array" ref="D42">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E42),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E42" s="2" t="e">
+        <f>MATCH(A42,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="str" cm="1">
+        <f t="array" ref="C43">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E43),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D43" s="5" t="str" cm="1">
+        <f t="array" ref="D43">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E43),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E43" s="2" t="e">
+        <f>MATCH(A43,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="str" cm="1">
+        <f t="array" ref="C44">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E44),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D44" s="5" t="str" cm="1">
+        <f t="array" ref="D44">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E44),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E44" s="2" t="e">
+        <f>MATCH(A44,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4" t="str" cm="1">
+        <f t="array" ref="C45">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E45),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D45" s="5" t="str" cm="1">
+        <f t="array" ref="D45">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E45),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E45" s="2" t="e">
+        <f>MATCH(A45,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="str" cm="1">
+        <f t="array" ref="C46">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E46),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D46" s="5" t="str" cm="1">
+        <f t="array" ref="D46">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E46),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E46" s="2" t="e">
+        <f>MATCH(A46,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="str" cm="1">
+        <f t="array" ref="C47">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E47),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D47" s="5" t="str" cm="1">
+        <f t="array" ref="D47">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E47),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E47" s="2" t="e">
+        <f>MATCH(A47,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="132.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="str" cm="1">
+        <f t="array" ref="C48">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E48),"-")</f>
+        <v>Data Quality</v>
+      </c>
+      <c r="D48" s="5" t="str" cm="1">
+        <f t="array" ref="D48">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E48),"-")</f>
         <v>Describes the overall quality of the record by taking the QACode, ResultQACode, ComplicanceCode, BatchVerificationCode, and special circumstances into account to assign it to one of the following categories:
 - "Metadata, QC record”- Not a measurement of environmental conditions
 - "Passed QC"- Data passed all QC checks
@@ -3075,121 +3269,65 @@
 - "Reject Data"- Data was rejected by the project or data did not pass all critical QC checks. Data deemed unusable
 The assignments and categories are provisional. A working explanation of the data quality ranking can be found at the following link. This link is open to public comments as well: https://docs.google.com/spreadsheets/d/1q-tGulvO9jyT2dR9GGROdy89z3W6xulYaci5-ezWAe0/edit?usp=sharing</v>
       </c>
-      <c r="E41" s="2">
-        <f>MATCH(A41,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E48" s="2">
+        <f>MATCH(A48,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>9</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="F48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="72.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="4" t="str" cm="1">
-        <f t="array" ref="C42">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E42),"-")</f>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="str" cm="1">
+        <f t="array" ref="C49">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E49),"-")</f>
         <v>Data Quality Indicator</v>
       </c>
-      <c r="D42" s="5" t="str" cm="1">
-        <f t="array" ref="D42">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E42),"-")</f>
+      <c r="D49" s="5" t="str" cm="1">
+        <f t="array" ref="D49">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E49),"-")</f>
         <v>Explains the reason for the DataQuality value by indicating which quality assurance check the data did not pass (e.g.
 BatchVerificationCode, ResultQACode, etc.). If this field contains “Special Rule,” this indicates that the data falls into a special circumstance that decreases data quality. This field is left blank for values "Metadata, QC record" and "Passed QC."
 The assignments and categories are provisional. A working explanation of the data quality ranking can be found at the following link. A full explanation of the data quality ranking can be found at the following link. This link is open to public comments as well: https://docs.google.com/spreadsheets/d/1q-tGulvO9jyT2dR9GGROdy89z3W6xulYaci5-ezWAe0/edit?usp=sharing</v>
       </c>
-      <c r="E42" s="2">
-        <f>MATCH(A42,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E49" s="2">
+        <f>MATCH(A49,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>10</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="F49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="4" t="str" cm="1">
-        <f t="array" ref="C43">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E43),"-")</f>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="str" cm="1">
+        <f t="array" ref="C50">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E50),"-")</f>
         <v>Datum</v>
       </c>
-      <c r="D43" s="5" t="str" cm="1">
-        <f t="array" ref="D43">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E43),"-")</f>
+      <c r="D50" s="5" t="str" cm="1">
+        <f t="array" ref="D50">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E50),"-")</f>
         <v>Represents the associated model of the Earth from which reference points are used to calculate position measurements.
 GPS devices commonly use datums such as "NAD83" and
 "WGS84." Default value equals “NR” if unknown. A list of possible options is available at the following site (Note: search the first column in the table for "DatumList"): http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=VariableCodesLookUp</v>
       </c>
-      <c r="E43" s="2">
-        <f>MATCH(A43,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E50" s="2">
+        <f>MATCH(A50,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>11</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3197,7 +3335,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3205,7 +3343,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3213,7 +3351,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3221,7 +3359,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3229,7 +3367,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3237,7 +3375,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3245,7 +3383,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3253,7 +3391,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3261,7 +3399,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3269,7 +3407,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3277,7 +3415,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3285,7 +3423,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3293,7 +3431,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3301,7 +3439,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3309,7 +3447,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3317,7 +3455,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3325,7 +3463,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3333,7 +3471,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3341,7 +3479,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3349,7 +3487,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3357,7 +3495,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3365,7 +3503,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3373,9 +3511,65 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B43" xr:uid="{A60F8528-AFED-4FEA-A4EC-61FF5E37D56D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50" xr:uid="{A60F8528-AFED-4FEA-A4EC-61FF5E37D56D}">
       <formula1>"text, numeric, timestamp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3392,17 +3586,17 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" style="12" customWidth="1"/>
     <col min="2" max="2" width="16" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="94.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="3" max="3" width="10.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="94.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>97</v>
       </c>
@@ -3419,7 +3613,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -3437,7 +3631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>47</v>
       </c>
@@ -3455,7 +3649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>66</v>
       </c>
@@ -3473,7 +3667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>59</v>
       </c>
@@ -3491,7 +3685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>29</v>
       </c>
@@ -3509,7 +3703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>20</v>
       </c>
@@ -3527,7 +3721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>43</v>
       </c>
@@ -3545,7 +3739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>92</v>
       </c>
@@ -3560,10 +3754,10 @@
       </c>
       <c r="E9" s="12">
         <f>MATCH(A9,CEDEN_Habitat_Data_Dictionary!A:A,0)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="108" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>94</v>
       </c>
@@ -3578,10 +3772,10 @@
       </c>
       <c r="E10" s="12">
         <f>MATCH(A10,CEDEN_Habitat_Data_Dictionary!A:A,0)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>96</v>
       </c>
@@ -3596,10 +3790,10 @@
       </c>
       <c r="E11" s="12">
         <f>MATCH(A11,CEDEN_Habitat_Data_Dictionary!A:A,0)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>72</v>
       </c>
@@ -3617,7 +3811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>89</v>
       </c>
@@ -3635,7 +3829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>53</v>
       </c>
@@ -3653,7 +3847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3671,7 +3865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>23</v>
       </c>
@@ -3689,7 +3883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>106</v>
       </c>
@@ -3707,7 +3901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>63</v>
       </c>
@@ -3725,7 +3919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>32</v>
       </c>
@@ -3743,7 +3937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>34</v>
       </c>
@@ -3761,7 +3955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>68</v>
       </c>
@@ -3779,7 +3973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>9</v>
       </c>
@@ -3797,7 +3991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>6</v>
       </c>
@@ -3815,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>11</v>
       </c>
@@ -3833,7 +4027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>55</v>
       </c>
@@ -3851,7 +4045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>41</v>
       </c>
@@ -3869,7 +4063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>39</v>
       </c>
@@ -3887,7 +4081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>38</v>
       </c>
@@ -3905,7 +4099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>50</v>
       </c>
@@ -3923,7 +4117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>57</v>
       </c>
@@ -3941,7 +4135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>45</v>
       </c>
@@ -3959,7 +4153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>17</v>
       </c>
@@ -3977,7 +4171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>27</v>
       </c>
@@ -3995,7 +4189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>70</v>
       </c>
@@ -4013,7 +4207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>15</v>
       </c>
@@ -4031,7 +4225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>13</v>
       </c>
@@ -4049,7 +4243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>81</v>
       </c>
@@ -4067,7 +4261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>76</v>
       </c>
@@ -4085,7 +4279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>87</v>
       </c>
@@ -4103,7 +4297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>37</v>
       </c>
@@ -4121,7 +4315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="42" t="s">
         <v>74</v>
       </c>
@@ -4139,7 +4333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
         <v>84</v>
       </c>
@@ -4157,7 +4351,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>79</v>
       </c>
@@ -4175,7 +4369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>105</v>
       </c>
@@ -4193,7 +4387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -4241,12 +4435,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4260,7 +4454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4268,7 +4462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4276,7 +4470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4284,7 +4478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4292,7 +4486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4300,7 +4494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4308,7 +4502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4316,7 +4510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4324,7 +4518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4332,7 +4526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4340,7 +4534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -4348,7 +4542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -4356,7 +4550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4364,7 +4558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4372,7 +4566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4380,7 +4574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4388,7 +4582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -4396,7 +4590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -4404,7 +4598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -4412,7 +4606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -4420,7 +4614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4428,7 +4622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -4436,7 +4630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -4444,7 +4638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -4452,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -4460,7 +4654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -4468,7 +4662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -4476,7 +4670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -4484,7 +4678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4492,7 +4686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4500,7 +4694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4508,7 +4702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4516,7 +4710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -4524,7 +4718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -4532,7 +4726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -4540,7 +4734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -4548,7 +4742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -4556,7 +4750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -4564,7 +4758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -4572,7 +4766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -4580,7 +4774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -4588,7 +4782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -4596,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>107</v>
       </c>
@@ -4604,7 +4798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -4612,7 +4806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -4620,7 +4814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -4628,7 +4822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>110</v>
       </c>
